--- a/src/data/summer20/leadership_summer20.xlsx
+++ b/src/data/summer20/leadership_summer20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codyenokida/Projects/dspuci-website-gatsby/src/data/winter20/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codyenokida/Projects/dspuci-website-gatsby/src/data/summer20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC35C94D-A809-CD4E-8FFA-A8580B798F53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C295FD1B-94B1-8D4F-95BA-3994396BFA0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>Vice President of Alumni Relations</t>
   </si>
   <si>
-    <t>TBA</t>
-  </si>
-  <si>
     <t>Jocelyn Kuo</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Meghan Cadigal</t>
+  </si>
+  <si>
+    <t>Edward Li</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,7 +466,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -474,7 +474,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
